--- a/artfynd/A 48374-2024 artfynd.xlsx
+++ b/artfynd/A 48374-2024 artfynd.xlsx
@@ -886,7 +886,7 @@
         <v>130816868</v>
       </c>
       <c r="B4" t="n">
-        <v>97122</v>
+        <v>97126</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>

--- a/artfynd/A 48374-2024 artfynd.xlsx
+++ b/artfynd/A 48374-2024 artfynd.xlsx
@@ -886,7 +886,7 @@
         <v>130816868</v>
       </c>
       <c r="B4" t="n">
-        <v>97126</v>
+        <v>97127</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
